--- a/data/RabbitMQ/Send-Only benchmarks data.xlsx
+++ b/data/RabbitMQ/Send-Only benchmarks data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SendOnly_Raw_Data" sheetId="1" r:id="rId1"/>
@@ -491,12 +491,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="317211888"/>
-        <c:axId val="317212448"/>
+        <c:axId val="432536736"/>
+        <c:axId val="432534496"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="317211888"/>
+        <c:axId val="432536736"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -518,7 +518,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -533,7 +533,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317212448"/>
+        <c:crossAx val="432534496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -541,7 +541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="317212448"/>
+        <c:axId val="432534496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -648,7 +648,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317211888"/>
+        <c:crossAx val="432536736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1640,11 +1640,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149260496"/>
-        <c:axId val="149261056"/>
+        <c:axId val="332473072"/>
+        <c:axId val="332473632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="149260496"/>
+        <c:axId val="332473072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1748,7 +1748,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149261056"/>
+        <c:crossAx val="332473632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1756,7 +1756,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149261056"/>
+        <c:axId val="332473632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1868,7 +1868,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149260496"/>
+        <c:crossAx val="332473072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3799,7 +3799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -4185,7 +4185,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4273,8 +4273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/RabbitMQ/Send-Only benchmarks data.xlsx
+++ b/data/RabbitMQ/Send-Only benchmarks data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SendOnly_Raw_Data" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
                   <c:v>18732.38</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2966.05</c:v>
+                  <c:v>10183.35</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2983.79</c:v>
@@ -491,12 +491,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="432536736"/>
-        <c:axId val="432534496"/>
+        <c:axId val="211930272"/>
+        <c:axId val="211930832"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="432536736"/>
+        <c:axId val="211930272"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -533,7 +533,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432534496"/>
+        <c:crossAx val="211930832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -541,7 +541,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="432534496"/>
+        <c:axId val="211930832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -648,7 +648,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432536736"/>
+        <c:crossAx val="211930272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1472,16 +1472,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1967.51</c:v>
+                  <c:v>10012.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2966.05</c:v>
+                  <c:v>10183.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3999.7</c:v>
+                  <c:v>10149.040000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4617.8599999999997</c:v>
+                  <c:v>10878.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1640,11 +1640,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="332473072"/>
-        <c:axId val="332473632"/>
+        <c:axId val="211634720"/>
+        <c:axId val="211635280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="332473072"/>
+        <c:axId val="211634720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1748,7 +1748,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332473632"/>
+        <c:crossAx val="211635280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1756,7 +1756,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="332473632"/>
+        <c:axId val="211635280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1868,7 +1868,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332473072"/>
+        <c:crossAx val="211634720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3366,7 +3366,7 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3580,31 +3580,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>25.381599999999999</v>
+        <v>4.9945000000000004</v>
       </c>
       <c r="C7" s="3">
-        <v>25.443999999999999</v>
+        <v>4.9931000000000001</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4">
-        <v>33.991399999999999</v>
+        <v>9.8131000000000004</v>
       </c>
       <c r="F7" s="4">
-        <v>33.438299999999998</v>
+        <v>9.8268000000000004</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="3">
-        <v>50.1708</v>
+        <v>18.1737</v>
       </c>
       <c r="I7" s="3">
-        <v>49.836599999999997</v>
+        <v>21.238900000000001</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4">
-        <v>87.043400000000005</v>
+        <v>36.379800000000003</v>
       </c>
       <c r="L7" s="4">
-        <v>86.197000000000003</v>
+        <v>37.159999999999997</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -3799,7 +3799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -4075,51 +4075,51 @@
       </c>
       <c r="B8">
         <f>AVERAGE(SendOnly_Raw_Data!B7:C7)</f>
-        <v>25.412799999999997</v>
+        <v>4.9938000000000002</v>
       </c>
       <c r="C8">
         <f>AVERAGE(SendOnly_Raw_Data!E7:F7)</f>
-        <v>33.714849999999998</v>
+        <v>9.8199500000000004</v>
       </c>
       <c r="D8">
         <f>AVERAGE(SendOnly_Raw_Data!H7:I7)</f>
-        <v>50.003699999999995</v>
+        <v>19.706299999999999</v>
       </c>
       <c r="E8">
         <f>AVERAGE(SendOnly_Raw_Data!K7:L7)</f>
-        <v>86.620200000000011</v>
+        <v>36.7699</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>1967.51</v>
+        <v>10012.42</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>2966.05</v>
+        <v>10183.35</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>3999.7</v>
+        <v>10149.040000000001</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>4617.8599999999997</v>
+        <v>10878.46</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>3935.02</v>
+        <v>20024.830000000002</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>5932.1</v>
+        <v>20366.7</v>
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>7999.41</v>
+        <v>20298.080000000002</v>
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>9235.7199999999993</v>
+        <v>21756.93</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="B7">
         <f>SendOnly_Plot_Source!H8</f>
-        <v>2966.05</v>
+        <v>10183.35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4273,7 +4273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -4395,19 +4395,19 @@
       </c>
       <c r="B8">
         <f>SendOnly_Plot_Source!G8</f>
-        <v>1967.51</v>
+        <v>10012.42</v>
       </c>
       <c r="C8">
         <f>SendOnly_Plot_Source!H8</f>
-        <v>2966.05</v>
+        <v>10183.35</v>
       </c>
       <c r="D8">
         <f>SendOnly_Plot_Source!I8</f>
-        <v>3999.7</v>
+        <v>10149.040000000001</v>
       </c>
       <c r="E8">
         <f>SendOnly_Plot_Source!J8</f>
-        <v>4617.8599999999997</v>
+        <v>10878.46</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
